--- a/res/SEED/res.xlsx
+++ b/res/SEED/res.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\final_res\SEED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29825A2-D7B6-4E01-8BB2-105C15F1CC2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8F8FCE-D384-47D6-BC69-E42F81D7E09F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>people</t>
   </si>
@@ -28,11 +28,11 @@
     <t>2 Experts</t>
   </si>
   <si>
-    <t>平均</t>
+    <t>index</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>index</t>
+    <t>平均</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -170,16 +170,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -501,15 +501,15 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>3</v>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>0.94579999999999997</v>
       </c>
       <c r="C2">
@@ -520,7 +520,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>0.91259999999999997</v>
       </c>
       <c r="C3">
@@ -531,7 +531,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>0.90169999999999995</v>
       </c>
       <c r="C4">
@@ -542,7 +542,7 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="6">
         <v>0.85119999999999996</v>
       </c>
       <c r="C5">
@@ -553,7 +553,7 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6">
@@ -564,7 +564,7 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7">
@@ -575,7 +575,7 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8">
@@ -586,7 +586,7 @@
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="7">
         <v>0.81210000000000004</v>
       </c>
       <c r="C9">
@@ -597,7 +597,7 @@
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="7">
         <v>0.79549999999999998</v>
       </c>
       <c r="C10">
@@ -608,8 +608,8 @@
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" s="3">
-        <v>0.75290000000000001</v>
+      <c r="B11" s="7">
+        <v>0.76080000000000003</v>
       </c>
       <c r="C11">
         <v>15</v>
@@ -619,7 +619,7 @@
       <c r="A12">
         <v>6</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>1</v>
       </c>
       <c r="C12">
@@ -630,7 +630,7 @@
       <c r="A13">
         <v>6</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="7">
         <v>0.82879999999999998</v>
       </c>
       <c r="C13">
@@ -641,7 +641,7 @@
       <c r="A14">
         <v>7</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>0.95009999999999994</v>
       </c>
       <c r="C14">
@@ -652,7 +652,7 @@
       <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>0.91259999999999997</v>
       </c>
       <c r="C15">
@@ -663,7 +663,7 @@
       <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>0.93279999999999996</v>
       </c>
       <c r="C16">
@@ -674,7 +674,7 @@
       <c r="A17">
         <v>8</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>0.92700000000000005</v>
       </c>
       <c r="C17">
@@ -685,7 +685,7 @@
       <c r="A18">
         <v>9</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>0.95809999999999995</v>
       </c>
       <c r="C18">
@@ -696,7 +696,7 @@
       <c r="A19">
         <v>9</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>0.94</v>
       </c>
       <c r="C19">
@@ -707,7 +707,7 @@
       <c r="A20">
         <v>10</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="7">
         <v>0.79410000000000003</v>
       </c>
       <c r="C20">
@@ -718,7 +718,7 @@
       <c r="A21">
         <v>10</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="6">
         <v>0.88370000000000004</v>
       </c>
       <c r="C21">
@@ -729,7 +729,7 @@
       <c r="A22">
         <v>11</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>0.9032</v>
       </c>
       <c r="C22">
@@ -740,7 +740,7 @@
       <c r="A23">
         <v>11</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>0.93710000000000004</v>
       </c>
       <c r="C23">
@@ -751,7 +751,7 @@
       <c r="A24">
         <v>12</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="7">
         <v>0.82010000000000005</v>
       </c>
       <c r="C24">
@@ -762,7 +762,7 @@
       <c r="A25">
         <v>12</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <v>0.99639999999999995</v>
       </c>
       <c r="C25">
@@ -773,7 +773,7 @@
       <c r="A26">
         <v>13</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="6">
         <v>0.88009999999999999</v>
       </c>
       <c r="C26">
@@ -784,7 +784,7 @@
       <c r="A27">
         <v>13</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="6">
         <v>0.86050000000000004</v>
       </c>
       <c r="C27">
@@ -795,7 +795,7 @@
       <c r="A28">
         <v>14</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="6">
         <v>0.88580000000000003</v>
       </c>
       <c r="C28">
@@ -806,7 +806,7 @@
       <c r="A29">
         <v>14</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="3">
         <v>0.96319999999999995</v>
       </c>
       <c r="C29">
@@ -817,7 +817,7 @@
       <c r="A30">
         <v>15</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="3">
         <v>1</v>
       </c>
       <c r="C30">
@@ -828,7 +828,7 @@
       <c r="A31">
         <v>15</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="3">
         <v>1</v>
       </c>
       <c r="C31">
@@ -836,12 +836,12 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="5">
+      <c r="A32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="4">
         <f>AVERAGE(B2:B31)</f>
-        <v>0.9115133333333334</v>
+        <v>0.91177666666666668</v>
       </c>
     </row>
   </sheetData>

--- a/res/SEED/res.xlsx
+++ b/res/SEED/res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\final_res\SEED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8F8FCE-D384-47D6-BC69-E42F81D7E09F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD3C6F9-2E02-471E-8E1F-D55095E5FD0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>people</t>
   </si>
@@ -174,10 +174,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
@@ -752,7 +752,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="7">
-        <v>0.82010000000000005</v>
+        <v>0.83160000000000001</v>
       </c>
       <c r="C24">
         <v>34</v>
@@ -774,10 +774,10 @@
         <v>13</v>
       </c>
       <c r="B26" s="6">
-        <v>0.88009999999999999</v>
+        <v>0.89739999999999998</v>
       </c>
       <c r="C26">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -785,10 +785,10 @@
         <v>13</v>
       </c>
       <c r="B27" s="6">
-        <v>0.86050000000000004</v>
+        <v>0.88009999999999999</v>
       </c>
       <c r="C27">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -836,12 +836,12 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="5">
         <f>AVERAGE(B2:B31)</f>
-        <v>0.91177666666666668</v>
+        <v>0.91339000000000015</v>
       </c>
     </row>
   </sheetData>

--- a/res/SEED/res.xlsx
+++ b/res/SEED/res.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\final_res\SEED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PycharmProjects\FB_GNN(latest)\res\SEED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B47D1B-2777-4A88-9AB8-DAA0BBADAD2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA1CC46-A8E6-47BA-8BFD-8D643074996A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>people</t>
   </si>
@@ -176,8 +176,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -489,7 +489,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="A32" activeCellId="1" sqref="B32 A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -509,7 +509,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>0.94579999999999997</v>
       </c>
       <c r="C2">
@@ -520,7 +520,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>0.91259999999999997</v>
       </c>
       <c r="C3">
@@ -531,7 +531,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>0.90169999999999995</v>
       </c>
       <c r="C4">
@@ -542,7 +542,7 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>0.85119999999999996</v>
       </c>
       <c r="C5">
@@ -652,7 +652,7 @@
       <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>0.91259999999999997</v>
       </c>
       <c r="C15">
@@ -663,7 +663,7 @@
       <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>0.93279999999999996</v>
       </c>
       <c r="C16">
@@ -674,7 +674,7 @@
       <c r="A17">
         <v>8</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>0.92700000000000005</v>
       </c>
       <c r="C17">
@@ -696,7 +696,7 @@
       <c r="A19">
         <v>9</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>0.94940000000000002</v>
       </c>
       <c r="C19">
@@ -718,7 +718,7 @@
       <c r="A21">
         <v>10</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>0.91690000000000005</v>
       </c>
       <c r="C21">
@@ -729,7 +729,7 @@
       <c r="A22">
         <v>11</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <v>0.9032</v>
       </c>
       <c r="C22">
@@ -740,7 +740,7 @@
       <c r="A23">
         <v>11</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <v>0.93710000000000004</v>
       </c>
       <c r="C23">
@@ -773,7 +773,7 @@
       <c r="A26">
         <v>13</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="5">
         <v>0.89739999999999998</v>
       </c>
       <c r="C26">
@@ -784,7 +784,7 @@
       <c r="A27">
         <v>13</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="5">
         <v>0.88009999999999999</v>
       </c>
       <c r="C27">
@@ -795,7 +795,7 @@
       <c r="A28">
         <v>14</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="5">
         <v>0.88580000000000003</v>
       </c>
       <c r="C28">

--- a/res/SEED/res.xlsx
+++ b/res/SEED/res.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\final_res\SEED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/Desktop/final_res/SEED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B98218-AD57-406D-9C36-5C866F8BF7EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4757E8F4-1344-1E40-BE7A-852013396468}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>people</t>
   </si>
@@ -29,18 +40,18 @@
   </si>
   <si>
     <t>index</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>平均</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,39 +63,8 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -99,6 +79,38 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -152,16 +164,16 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -170,16 +182,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -492,9 +504,9 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,18 +517,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>0.94579999999999997</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -527,7 +539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -538,7 +550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -549,7 +561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -560,7 +572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -571,7 +583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="15">
       <c r="A8">
         <v>4</v>
       </c>
@@ -582,7 +594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="15">
       <c r="A9">
         <v>4</v>
       </c>
@@ -593,18 +605,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="15">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" s="5">
-        <v>0.79549999999999998</v>
+        <v>0.80559999999999998</v>
       </c>
       <c r="C10">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="15">
       <c r="A11">
         <v>5</v>
       </c>
@@ -615,7 +627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="15">
       <c r="A12">
         <v>6</v>
       </c>
@@ -626,7 +638,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -637,7 +649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="15">
       <c r="A14">
         <v>7</v>
       </c>
@@ -648,7 +660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="15">
       <c r="A15">
         <v>7</v>
       </c>
@@ -659,7 +671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="15">
       <c r="A16">
         <v>8</v>
       </c>
@@ -670,7 +682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="15">
       <c r="A17">
         <v>8</v>
       </c>
@@ -681,7 +693,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="15">
       <c r="A18">
         <v>9</v>
       </c>
@@ -692,18 +704,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="15">
       <c r="A19">
         <v>9</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>0.94940000000000002</v>
       </c>
       <c r="C19">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="15">
       <c r="A20">
         <v>10</v>
       </c>
@@ -714,7 +726,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="15">
       <c r="A21">
         <v>10</v>
       </c>
@@ -725,7 +737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="15">
       <c r="A22">
         <v>11</v>
       </c>
@@ -736,7 +748,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="15">
       <c r="A23">
         <v>11</v>
       </c>
@@ -747,7 +759,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="15">
       <c r="A24">
         <v>12</v>
       </c>
@@ -758,7 +770,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="15">
       <c r="A25">
         <v>12</v>
       </c>
@@ -769,40 +781,40 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="15">
       <c r="A26">
         <v>13</v>
       </c>
       <c r="B26" s="5">
-        <v>0.89739999999999998</v>
+        <v>0.89880000000000004</v>
       </c>
       <c r="C26">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="15">
       <c r="A27">
         <v>13</v>
       </c>
       <c r="B27" s="5">
-        <v>0.88009999999999999</v>
+        <v>0.89810000000000001</v>
       </c>
       <c r="C27">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="15">
       <c r="A28">
         <v>14</v>
       </c>
-      <c r="B28" s="5">
-        <v>0.88580000000000003</v>
+      <c r="B28" s="4">
+        <v>0.90610000000000002</v>
       </c>
       <c r="C28">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="15">
       <c r="A29">
         <v>14</v>
       </c>
@@ -813,7 +825,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="15">
       <c r="A30">
         <v>15</v>
       </c>
@@ -824,7 +836,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="15">
       <c r="A31">
         <v>15</v>
       </c>
@@ -835,18 +847,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:3" ht="15">
+      <c r="A32" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <f>AVERAGE(B2:B31)</f>
-        <v>0.92130999999999996</v>
+        <v>0.92296999999999996</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/res/SEED/res.xlsx
+++ b/res/SEED/res.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/Desktop/final_res/SEED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4757E8F4-1344-1E40-BE7A-852013396468}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DABFA41-A1A0-F149-AB45-95E7FA1C260B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,18 +40,18 @@
   </si>
   <si>
     <t>index</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>平均</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +63,13 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -164,33 +171,34 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -500,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -513,7 +521,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -524,7 +532,7 @@
       <c r="B2" s="3">
         <v>0.94579999999999997</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
     </row>
@@ -535,7 +543,7 @@
       <c r="B3" s="4">
         <v>0.91259999999999997</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>2</v>
       </c>
     </row>
@@ -546,7 +554,7 @@
       <c r="B4" s="4">
         <v>0.90169999999999995</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>4</v>
       </c>
     </row>
@@ -557,7 +565,7 @@
       <c r="B5" s="5">
         <v>0.85119999999999996</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>5</v>
       </c>
     </row>
@@ -568,7 +576,7 @@
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>7</v>
       </c>
     </row>
@@ -579,7 +587,7 @@
       <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>9</v>
       </c>
     </row>
@@ -590,7 +598,7 @@
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>10</v>
       </c>
     </row>
@@ -601,7 +609,7 @@
       <c r="B9" s="5">
         <v>0.81210000000000004</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>11</v>
       </c>
     </row>
@@ -612,7 +620,7 @@
       <c r="B10" s="5">
         <v>0.80559999999999998</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>14</v>
       </c>
     </row>
@@ -623,7 +631,7 @@
       <c r="B11" s="5">
         <v>0.77380000000000004</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>15</v>
       </c>
     </row>
@@ -634,7 +642,7 @@
       <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>16</v>
       </c>
     </row>
@@ -645,7 +653,7 @@
       <c r="B13" s="3">
         <v>0.95809999999999995</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>18</v>
       </c>
     </row>
@@ -656,7 +664,7 @@
       <c r="B14" s="3">
         <v>0.95009999999999994</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>19</v>
       </c>
     </row>
@@ -667,7 +675,7 @@
       <c r="B15" s="4">
         <v>0.91259999999999997</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>20</v>
       </c>
     </row>
@@ -678,7 +686,7 @@
       <c r="B16" s="4">
         <v>0.93279999999999996</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>23</v>
       </c>
     </row>
@@ -689,7 +697,7 @@
       <c r="B17" s="4">
         <v>0.92700000000000005</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>24</v>
       </c>
     </row>
@@ -700,7 +708,7 @@
       <c r="B18" s="3">
         <v>0.9718</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>25</v>
       </c>
     </row>
@@ -711,7 +719,7 @@
       <c r="B19" s="3">
         <v>0.94940000000000002</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>26</v>
       </c>
     </row>
@@ -722,7 +730,7 @@
       <c r="B20" s="5">
         <v>0.83309999999999995</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>28</v>
       </c>
     </row>
@@ -733,7 +741,7 @@
       <c r="B21" s="4">
         <v>0.91690000000000005</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>30</v>
       </c>
     </row>
@@ -744,7 +752,7 @@
       <c r="B22" s="4">
         <v>0.9032</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>32</v>
       </c>
     </row>
@@ -755,7 +763,7 @@
       <c r="B23" s="4">
         <v>0.93710000000000004</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>33</v>
       </c>
     </row>
@@ -766,7 +774,7 @@
       <c r="B24" s="5">
         <v>0.83160000000000001</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>34</v>
       </c>
     </row>
@@ -777,7 +785,7 @@
       <c r="B25" s="3">
         <v>0.99639999999999995</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>36</v>
       </c>
     </row>
@@ -788,7 +796,7 @@
       <c r="B26" s="5">
         <v>0.89880000000000004</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>37</v>
       </c>
     </row>
@@ -799,7 +807,7 @@
       <c r="B27" s="5">
         <v>0.89810000000000001</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>38</v>
       </c>
     </row>
@@ -810,7 +818,7 @@
       <c r="B28" s="4">
         <v>0.90610000000000002</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>40</v>
       </c>
     </row>
@@ -821,7 +829,7 @@
       <c r="B29" s="3">
         <v>0.96319999999999995</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>41</v>
       </c>
     </row>
@@ -832,7 +840,7 @@
       <c r="B30" s="3">
         <v>1</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>44</v>
       </c>
     </row>
@@ -843,7 +851,7 @@
       <c r="B31" s="3">
         <v>1</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>45</v>
       </c>
     </row>
@@ -857,7 +865,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/res/SEED/res.xlsx
+++ b/res/SEED/res.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/Desktop/final_res/SEED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DABFA41-A1A0-F149-AB45-95E7FA1C260B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A2F734-1E5F-2343-9FCB-1227005AFE43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="140" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -618,7 +618,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="5">
-        <v>0.80559999999999998</v>
+        <v>0.81940000000000002</v>
       </c>
       <c r="C10" s="2">
         <v>14</v>
@@ -861,7 +861,7 @@
       </c>
       <c r="B32" s="6">
         <f>AVERAGE(B2:B31)</f>
-        <v>0.92296999999999996</v>
+        <v>0.92343000000000008</v>
       </c>
     </row>
   </sheetData>

--- a/res/SEED/res.xlsx
+++ b/res/SEED/res.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/Desktop/final_res/SEED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A2F734-1E5F-2343-9FCB-1227005AFE43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7174EC03-71F6-684C-B83A-5519D8ED4AF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,18 +40,18 @@
   </si>
   <si>
     <t>index</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>平均</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,29 +65,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="SimSun"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -118,6 +95,22 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -171,34 +164,33 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -508,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -521,7 +513,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -532,7 +524,7 @@
       <c r="B2" s="3">
         <v>0.94579999999999997</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>1</v>
       </c>
     </row>
@@ -543,7 +535,7 @@
       <c r="B3" s="4">
         <v>0.91259999999999997</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>2</v>
       </c>
     </row>
@@ -554,7 +546,7 @@
       <c r="B4" s="4">
         <v>0.90169999999999995</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>4</v>
       </c>
     </row>
@@ -565,7 +557,7 @@
       <c r="B5" s="5">
         <v>0.85119999999999996</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>5</v>
       </c>
     </row>
@@ -576,7 +568,7 @@
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>7</v>
       </c>
     </row>
@@ -587,7 +579,7 @@
       <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>9</v>
       </c>
     </row>
@@ -598,7 +590,7 @@
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>10</v>
       </c>
     </row>
@@ -609,7 +601,7 @@
       <c r="B9" s="5">
         <v>0.81210000000000004</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>11</v>
       </c>
     </row>
@@ -620,7 +612,7 @@
       <c r="B10" s="5">
         <v>0.81940000000000002</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>14</v>
       </c>
     </row>
@@ -631,7 +623,7 @@
       <c r="B11" s="5">
         <v>0.77380000000000004</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>15</v>
       </c>
     </row>
@@ -642,7 +634,7 @@
       <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>16</v>
       </c>
     </row>
@@ -653,7 +645,7 @@
       <c r="B13" s="3">
         <v>0.95809999999999995</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>18</v>
       </c>
     </row>
@@ -664,7 +656,7 @@
       <c r="B14" s="3">
         <v>0.95009999999999994</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>19</v>
       </c>
     </row>
@@ -675,7 +667,7 @@
       <c r="B15" s="4">
         <v>0.91259999999999997</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>20</v>
       </c>
     </row>
@@ -686,7 +678,7 @@
       <c r="B16" s="4">
         <v>0.93279999999999996</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>23</v>
       </c>
     </row>
@@ -697,7 +689,7 @@
       <c r="B17" s="4">
         <v>0.92700000000000005</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>24</v>
       </c>
     </row>
@@ -708,7 +700,7 @@
       <c r="B18" s="3">
         <v>0.9718</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>25</v>
       </c>
     </row>
@@ -719,7 +711,7 @@
       <c r="B19" s="3">
         <v>0.94940000000000002</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19">
         <v>26</v>
       </c>
     </row>
@@ -730,7 +722,7 @@
       <c r="B20" s="5">
         <v>0.83309999999999995</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
         <v>28</v>
       </c>
     </row>
@@ -741,7 +733,7 @@
       <c r="B21" s="4">
         <v>0.91690000000000005</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>30</v>
       </c>
     </row>
@@ -752,7 +744,7 @@
       <c r="B22" s="4">
         <v>0.9032</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22">
         <v>32</v>
       </c>
     </row>
@@ -763,7 +755,7 @@
       <c r="B23" s="4">
         <v>0.93710000000000004</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23">
         <v>33</v>
       </c>
     </row>
@@ -774,7 +766,7 @@
       <c r="B24" s="5">
         <v>0.83160000000000001</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24">
         <v>34</v>
       </c>
     </row>
@@ -785,7 +777,7 @@
       <c r="B25" s="3">
         <v>0.99639999999999995</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25">
         <v>36</v>
       </c>
     </row>
@@ -796,7 +788,7 @@
       <c r="B26" s="5">
         <v>0.89880000000000004</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26">
         <v>37</v>
       </c>
     </row>
@@ -807,7 +799,7 @@
       <c r="B27" s="5">
         <v>0.89810000000000001</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27">
         <v>38</v>
       </c>
     </row>
@@ -818,7 +810,7 @@
       <c r="B28" s="4">
         <v>0.90610000000000002</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28">
         <v>40</v>
       </c>
     </row>
@@ -829,7 +821,7 @@
       <c r="B29" s="3">
         <v>0.96319999999999995</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29">
         <v>41</v>
       </c>
     </row>
@@ -840,7 +832,7 @@
       <c r="B30" s="3">
         <v>1</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30">
         <v>44</v>
       </c>
     </row>
@@ -851,7 +843,7 @@
       <c r="B31" s="3">
         <v>1</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31">
         <v>45</v>
       </c>
     </row>
@@ -865,7 +857,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/res/SEED/res.xlsx
+++ b/res/SEED/res.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/Desktop/final_res/SEED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7174EC03-71F6-684C-B83A-5519D8ED4AF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754A8CC2-18BC-F04E-BF90-E5502D81FAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
@@ -500,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="187" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -785,8 +785,8 @@
       <c r="A26">
         <v>13</v>
       </c>
-      <c r="B26" s="5">
-        <v>0.89880000000000004</v>
+      <c r="B26" s="4">
+        <v>0.9032</v>
       </c>
       <c r="C26">
         <v>37</v>
@@ -796,8 +796,8 @@
       <c r="A27">
         <v>13</v>
       </c>
-      <c r="B27" s="5">
-        <v>0.89810000000000001</v>
+      <c r="B27" s="4">
+        <v>0.91690000000000005</v>
       </c>
       <c r="C27">
         <v>38</v>
@@ -853,7 +853,7 @@
       </c>
       <c r="B32" s="6">
         <f>AVERAGE(B2:B31)</f>
-        <v>0.92343000000000008</v>
+        <v>0.92420333333333327</v>
       </c>
     </row>
   </sheetData>

--- a/res/SEED/res.xlsx
+++ b/res/SEED/res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/Desktop/final_res/SEED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754A8CC2-18BC-F04E-BF90-E5502D81FAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADFAE6E-AB3C-CA4D-80AD-686B9E5A8817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="187" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -555,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="5">
-        <v>0.85119999999999996</v>
+        <v>0.88580000000000003</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -853,7 +853,7 @@
       </c>
       <c r="B32" s="6">
         <f>AVERAGE(B2:B31)</f>
-        <v>0.92420333333333327</v>
+        <v>0.92535666666666649</v>
       </c>
     </row>
   </sheetData>

--- a/res/SEED/res.xlsx
+++ b/res/SEED/res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/Desktop/final_res/SEED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADFAE6E-AB3C-CA4D-80AD-686B9E5A8817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A23B95B-CDA5-0548-A555-48D43C099C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="187" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -720,7 +720,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="5">
-        <v>0.83309999999999995</v>
+        <v>0.88080000000000003</v>
       </c>
       <c r="C20">
         <v>28</v>
@@ -853,7 +853,7 @@
       </c>
       <c r="B32" s="6">
         <f>AVERAGE(B2:B31)</f>
-        <v>0.92535666666666649</v>
+        <v>0.92694666666666647</v>
       </c>
     </row>
   </sheetData>

--- a/res/SEED/res.xlsx
+++ b/res/SEED/res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/Desktop/final_res/SEED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A23B95B-CDA5-0548-A555-48D43C099C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEE986E-12AB-1A4E-A46E-2F855D272D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="187" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -599,7 +599,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="5">
-        <v>0.81210000000000004</v>
+        <v>0.81789999999999996</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -853,7 +853,7 @@
       </c>
       <c r="B32" s="6">
         <f>AVERAGE(B2:B31)</f>
-        <v>0.92694666666666647</v>
+        <v>0.92713999999999985</v>
       </c>
     </row>
   </sheetData>

--- a/res/SEED/res.xlsx
+++ b/res/SEED/res.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/Desktop/final_res/SEED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEE986E-12AB-1A4E-A46E-2F855D272D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFE891C-DA32-E040-9DA9-F250D682579A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="187" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -544,7 +544,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>0.90169999999999995</v>
+        <v>0.93710000000000004</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -675,8 +675,8 @@
       <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" s="4">
-        <v>0.93279999999999996</v>
+      <c r="B16" s="3">
+        <v>0.9415</v>
       </c>
       <c r="C16">
         <v>23</v>
@@ -730,8 +730,8 @@
       <c r="A21">
         <v>10</v>
       </c>
-      <c r="B21" s="4">
-        <v>0.91690000000000005</v>
+      <c r="B21" s="3">
+        <v>0.9617</v>
       </c>
       <c r="C21">
         <v>30</v>
@@ -752,8 +752,8 @@
       <c r="A23">
         <v>11</v>
       </c>
-      <c r="B23" s="4">
-        <v>0.93710000000000004</v>
+      <c r="B23" s="3">
+        <v>0.94359999999999999</v>
       </c>
       <c r="C23">
         <v>33</v>
@@ -853,7 +853,7 @@
       </c>
       <c r="B32" s="6">
         <f>AVERAGE(B2:B31)</f>
-        <v>0.92713999999999985</v>
+        <v>0.93032000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/res/SEED/res.xlsx
+++ b/res/SEED/res.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/Desktop/final_res/SEED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFE891C-DA32-E040-9DA9-F250D682579A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4B5470-9190-274F-ACFD-7328A311F28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -807,8 +807,8 @@
       <c r="A28">
         <v>14</v>
       </c>
-      <c r="B28" s="4">
-        <v>0.90610000000000002</v>
+      <c r="B28" s="3">
+        <v>0.96599999999999997</v>
       </c>
       <c r="C28">
         <v>40</v>
@@ -853,7 +853,7 @@
       </c>
       <c r="B32" s="6">
         <f>AVERAGE(B2:B31)</f>
-        <v>0.93032000000000004</v>
+        <v>0.93231666666666679</v>
       </c>
     </row>
   </sheetData>

--- a/res/SEED/res.xlsx
+++ b/res/SEED/res.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/Desktop/final_res/SEED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BB1809-802D-7944-9340-84DC1644A43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78542E56-8AE4-B948-B270-E84745292A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,11 +187,11 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -500,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="141" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -554,7 +554,7 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>0.88580000000000003</v>
       </c>
       <c r="C5">
@@ -598,7 +598,7 @@
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>0.81789999999999996</v>
       </c>
       <c r="C9">
@@ -609,7 +609,7 @@
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>0.81940000000000002</v>
       </c>
       <c r="C10">
@@ -620,7 +620,7 @@
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>0.77380000000000004</v>
       </c>
       <c r="C11">
@@ -654,7 +654,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="3">
-        <v>0.95009999999999994</v>
+        <v>0.98119999999999996</v>
       </c>
       <c r="C14">
         <v>19</v>
@@ -719,7 +719,7 @@
       <c r="A20">
         <v>10</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="5">
         <v>0.88080000000000003</v>
       </c>
       <c r="C20">
@@ -763,7 +763,7 @@
       <c r="A24">
         <v>12</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="5">
         <v>0.83160000000000001</v>
       </c>
       <c r="C24">
@@ -851,9 +851,9 @@
       <c r="A32" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="7">
         <f>AVERAGE(B2:B31)</f>
-        <v>0.93296666666666683</v>
+        <v>0.93400333333333352</v>
       </c>
     </row>
   </sheetData>

--- a/res/SEED/res.xlsx
+++ b/res/SEED/res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/Desktop/final_res/SEED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78542E56-8AE4-B948-B270-E84745292A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F648E1E0-26C2-7940-8181-E22130E29CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -742,7 +742,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="4">
-        <v>0.9032</v>
+        <v>0.9133</v>
       </c>
       <c r="C22">
         <v>32</v>
@@ -853,7 +853,7 @@
       </c>
       <c r="B32" s="7">
         <f>AVERAGE(B2:B31)</f>
-        <v>0.93400333333333352</v>
+        <v>0.93434000000000006</v>
       </c>
     </row>
   </sheetData>

--- a/res/SEED/res.xlsx
+++ b/res/SEED/res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/Desktop/final_res/SEED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F648E1E0-26C2-7940-8181-E22130E29CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBE8FA5-D03D-2148-8646-4E807888C7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="141" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -533,7 +533,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>0.91259999999999997</v>
+        <v>0.92989999999999995</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -853,7 +853,7 @@
       </c>
       <c r="B32" s="7">
         <f>AVERAGE(B2:B31)</f>
-        <v>0.93434000000000006</v>
+        <v>0.93491666666666662</v>
       </c>
     </row>
   </sheetData>

--- a/res/SEED/res.xlsx
+++ b/res/SEED/res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/Desktop/final_res/SEED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBE8FA5-D03D-2148-8646-4E807888C7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870AF5CE-8A46-AD4A-9EF5-F41584F897F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,7 +501,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -665,7 +665,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="4">
-        <v>0.91259999999999997</v>
+        <v>0.92120000000000002</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -853,7 +853,7 @@
       </c>
       <c r="B32" s="7">
         <f>AVERAGE(B2:B31)</f>
-        <v>0.93491666666666662</v>
+        <v>0.93520333333333339</v>
       </c>
     </row>
   </sheetData>

--- a/res/SEED/res.xlsx
+++ b/res/SEED/res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/Desktop/final_res/SEED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870AF5CE-8A46-AD4A-9EF5-F41584F897F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31259698-9C1E-714E-A8D2-3F7697CCF1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="141" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -797,7 +797,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="4">
-        <v>0.91690000000000005</v>
+        <v>0.92049999999999998</v>
       </c>
       <c r="C27">
         <v>38</v>
@@ -853,7 +853,7 @@
       </c>
       <c r="B32" s="7">
         <f>AVERAGE(B2:B31)</f>
-        <v>0.93520333333333339</v>
+        <v>0.9353233333333334</v>
       </c>
     </row>
   </sheetData>

--- a/res/SEED/res.xlsx
+++ b/res/SEED/res.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/Desktop/final_res/SEED/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/PycharmProjects/Finegrained_GNN/res/SEED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31259698-9C1E-714E-A8D2-3F7697CCF1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22C8731-97F0-2143-AB32-815B22D8A674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="141" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="141" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -665,7 +665,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="4">
-        <v>0.92120000000000002</v>
+        <v>0.93569999999999998</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -853,7 +853,7 @@
       </c>
       <c r="B32" s="7">
         <f>AVERAGE(B2:B31)</f>
-        <v>0.9353233333333334</v>
+        <v>0.9358066666666669</v>
       </c>
     </row>
   </sheetData>

--- a/res/SEED/res.xlsx
+++ b/res/SEED/res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/PycharmProjects/Finegrained_GNN/res/SEED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22C8731-97F0-2143-AB32-815B22D8A674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819E0EEE-2785-2C45-9D0F-B43BEC400A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="141" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="141" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -665,7 +665,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="4">
-        <v>0.93569999999999998</v>
+        <v>0.92120000000000002</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -786,7 +786,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="4">
-        <v>0.9032</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="C26">
         <v>37</v>
@@ -853,7 +853,7 @@
       </c>
       <c r="B32" s="7">
         <f>AVERAGE(B2:B31)</f>
-        <v>0.9358066666666669</v>
+        <v>0.93595000000000017</v>
       </c>
     </row>
   </sheetData>

--- a/res/SEED/res.xlsx
+++ b/res/SEED/res.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/PycharmProjects/Finegrained_GNN/res/SEED/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyiik/Desktop/final_res/SEED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819E0EEE-2785-2C45-9D0F-B43BEC400A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBC1A6D-5129-9548-9D48-E46AAA354C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,10 +188,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -500,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="141" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="200" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -665,7 +665,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="4">
-        <v>0.92120000000000002</v>
+        <v>0.93569999999999998</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -848,12 +848,12 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="15">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <f>AVERAGE(B2:B31)</f>
-        <v>0.93595000000000017</v>
+        <v>0.93643333333333356</v>
       </c>
     </row>
   </sheetData>
